--- a/Analysis/Outputs/File_S5.xlsx
+++ b/Analysis/Outputs/File_S5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t xml:space="preserve">Source</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Term Name</t>
   </si>
   <si>
-    <t xml:space="preserve">Genes</t>
+    <t xml:space="preserve">Contributing Genes</t>
   </si>
   <si>
     <t xml:space="preserve">GO:BP</t>
@@ -77,7 +77,7 @@
     <t xml:space="preserve">translation</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0006518</t>
@@ -86,13 +86,16 @@
     <t xml:space="preserve">peptide metabolic process</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0009058</t>
   </si>
   <si>
     <t xml:space="preserve">biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0001046300,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0001046300,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_2000221200,SRAE_2000314600,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000292600,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0000451900,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0001504900,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009059</t>
@@ -101,7 +104,7 @@
     <t xml:space="preserve">macromolecule biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000163600,SPAL_0000969250,SPAL_0000388400,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009144</t>
@@ -110,7 +113,7 @@
     <t xml:space="preserve">purine nucleoside triphosphate metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000239700,SSTP_0000076400,SSTP_0001181600</t>
+    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000239700,SSTP_0000076400,SSTP_0001181600, SRAE_2000256800,SRAE_2000334600,SRAE_1000278400,SRAE_2000443400,SRAE_2000061100,SRAE_1000255700, SPAL_0000995200,SPAL_0000219500,SPAL_0001728100,SPAL_0000655400,SPAL_0000317800,SPAL_0000864500,SPAL_0000810100</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0009145</t>
@@ -137,7 +140,7 @@
     <t xml:space="preserve">gene expression</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_2000132300,SRAE_1000211500,SRAE_2000435600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_0000022800,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000145500,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600,SRAE_2000050800,SRAE_0000015400,SRAE_2000351900, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0001641000,SPAL_0000317400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000163600,SPAL_0000969250,SPAL_0000388400,SPAL_0001647700,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0019538</t>
@@ -146,7 +149,7 @@
     <t xml:space="preserve">protein metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0001106900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000930100,SSTP_0000987900,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_2000486000,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1162100, SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0001106900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000930100,SSTP_0000987900,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_1000158800,SRAE_1000309200,SRAE_2000183100,SRAE_1000213600,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000202500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000152200,SRAE_1000227100,SRAE_2000377600,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000111700,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000254800,SRAE_1000120800,SRAE_0000041600,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600,SRAE_2000357200, SPAL_0001634600,SPAL_0000849600,SPAL_0000730900,SPAL_0001024600,SPAL_0000703100,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0001630700,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000874800,SPAL_0001746100,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000095400,SPAL_0001742500,SPAL_0001054500,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0001620400,SPAL_0001617000,SPAL_0000177400,SPAL_0001652200,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0001381800,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0034641</t>
@@ -155,7 +158,7 @@
     <t xml:space="preserve">cellular nitrogen compound metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0001170200,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000011200,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0001170200,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000011200,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000207300,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_1000020900,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_1000136300,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_0000022800,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_2000458700, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001096500,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001238800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000919300,SPAL_0000292900,SPAL_0000177400,SPAL_0000750800,SPAL_0000783800,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0034645</t>
@@ -176,7 +179,7 @@
     <t xml:space="preserve">cellular amide metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0001003800,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0001003800,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043604</t>
@@ -185,13 +188,16 @@
     <t xml:space="preserve">amide biosynthetic process</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0001003800,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0001412300,SPAL_0001590600</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0044249</t>
   </si>
   <si>
     <t xml:space="preserve">cellular biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0044267</t>
@@ -200,7 +206,7 @@
     <t xml:space="preserve">cellular protein metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000346800,SSTP_0000298300,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_1000309200,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000037500,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000254800,SRAE_1000120800,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000095400,SPAL_0001742500,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001652200,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0044271</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">cellular nitrogen compound biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0046034</t>
@@ -218,7 +224,7 @@
     <t xml:space="preserve">ATP metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0001168700,SSTP_0000556300,SSTP_0000096500,SSTP_0000076400,SSTP_0000140700,SSTP_0000911300,SSTP_0001244100,SSTP_0001181600,SSTP_0001138700</t>
+    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0001168700,SSTP_0000556300,SSTP_0000096500,SSTP_0000076400,SSTP_0000140700,SSTP_0000911300,SSTP_0001244100,SSTP_0001181600,SSTP_0001138700, SRAE_M000000005,SRAE_2000256800,SRAE_2000334600,SRAE_2000207300,SRAE_1000020900,SRAE_1000278400,SRAE_1000136300,SRAE_2000443400,SRAE_1000255700,SRAE_X000121000, SPAL_0000995200,SPAL_0000219500,SPAL_0000921600,SPAL_0001096500,SPAL_0000655400,SPAL_0000921500,SPAL_0000317800,SPAL_0000919300,SPAL_0000750800,SPAL_0000783800,SPAL_0000864500,SPAL_0000810100</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1901564</t>
@@ -227,7 +233,7 @@
     <t xml:space="preserve">organonitrogen compound metabolic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0001106900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000427500,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000816100,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0000987900,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700</t>
+    <t xml:space="preserve">SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_2000486000,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1162100, SSTP_0000387200,SSTP_0000718800,SSTP_0000341900,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000614100,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001168700,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0000096500,SSTP_0001106900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000696700,SSTP_0000427500,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000999900,SSTP_0000305100,SSTP_0000893000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000816100,SSTP_0000298300,SSTP_0000777200,SSTP_0000054200,SSTP_0000228600,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000780500,SSTP_0000127700,SSTP_0000163100,SSTP_0000140700,SSTP_0000911300,SSTP_0000930100,SSTP_0000987900,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0001138700,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_1000158800,SRAE_1000309200,SRAE_2000183100,SRAE_1000213600,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000105100,SRAE_2000334600,SRAE_2000202500,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000207300,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_1000020900,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000222500,SRAE_2000074500,SRAE_2000374400,SRAE_2000110600,SRAE_2000516800,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_2000335200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000152200,SRAE_1000227100,SRAE_1000136300,SRAE_2000377600,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_0000017400,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000111700,SRAE_1000189700,SRAE_2000174400,SRAE_0000036800,SRAE_2000323200,SRAE_2000234300,SRAE_2000240600,SRAE_2000130600,SRAE_1000255700,SRAE_1000254800,SRAE_1000120800,SRAE_0000041600,SRAE_2000045800,SRAE_0000040600,SRAE_0000015400,SRAE_2000351900,SRAE_2000369600,SRAE_2000357200, SPAL_0001634600,SPAL_0000849600,SPAL_0000730900,SPAL_0001024600,SPAL_0000703100,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001551900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001096500,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0001630700,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000874800,SPAL_0001746100,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000249700,SPAL_0000317800,SPAL_0000095400,SPAL_0001742500,SPAL_0001054500,SPAL_0001590150,SPAL_0000729200,SPAL_0000919300,SPAL_0000292900,SPAL_0001620400,SPAL_0001617000,SPAL_0000177400,SPAL_0000750800,SPAL_0001652200,SPAL_0000783800,SPAL_0000864500,SPAL_0000220100,SPAL_0000813200,SPAL_0000464900,SPAL_0000969250,SPAL_0000483100,SPAL_0001642900,SPAL_0000092400,SPAL_0000275900,SPAL_0001381800,SPAL_0000969700,SPAL_0000388400,SPAL_0000863600,SPAL_0000158900,SPAL_0000810100,SPAL_0000724900,SPAL_0000395700,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1901566</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">organonitrogen compound biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000286600,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1901576</t>
@@ -245,7 +251,7 @@
     <t xml:space="preserve">organic substance biosynthetic process</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000387200,SSTP_0000718800,SSTP_0000823300,SSTP_0000119100,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000269800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000978600,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000759000,SSTP_0001004100,SSTP_0000992800,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000395000,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000412300,SSTP_0000344100,SSTP_0000239700,SSTP_0001066000,SSTP_0001049900,SSTP_0001244400,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000076400,SSTP_0000346800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000042400,SSTP_0000596100,SSTP_0001096000,SSTP_0000127700,SSTP_0000930100,SSTP_0000634900,SSTP_0001171150,SSTP_0000304700,SSTP_0001003800,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_2000115900,SRAE_2000058600,SRAE_1000313900,SRAE_2000256800,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000334600,SRAE_2000067300,SRAE_1000046600,SRAE_1000092000,SRAE_2000311200,SRAE_1000262800,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000413400,SRAE_2000221200,SRAE_2000314600,SRAE_1000259000,SRAE_1000340400,SRAE_2000470200,SRAE_2000286600,SRAE_1000191400,SRAE_2000285200,SRAE_1000263300,SRAE_2000349800,SRAE_2000140600,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_1000031300,SRAE_2000222400,SRAE_1000278400,SRAE_1000227100,SRAE_2000443400,SRAE_1000124900,SRAE_2000291100,SRAE_1000300500,SRAE_2000422000,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000061100,SRAE_2000037500,SRAE_2000174400,SRAE_X000250000,SRAE_1000197400,SRAE_2000323200,SRAE_2000234300,SRAE_1000255700,SRAE_1000120800,SRAE_0000040600,SRAE_2000236300,SRAE_X000079300, SPAL_0001634600,SPAL_0000849600,SPAL_0001024600,SPAL_0000995200,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0001081300,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0000886300,SPAL_0001728100,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000818500,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0000461800,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000292600,SPAL_0001081000,SPAL_0000317400,SPAL_0000348700,SPAL_0001512400,SPAL_0001698600,SPAL_0000722200,SPAL_0000156000,SPAL_0000451900,SPAL_0001554100,SPAL_0000317800,SPAL_0000095400,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000864500,SPAL_0000163600,SPAL_0000969250,SPAL_0000969700,SPAL_0000388400,SPAL_0001376500,SPAL_0001647700,SPAL_0000235200,SPAL_0000158900,SPAL_0000810100,SPAL_0001412300,SPAL_0001590600,SPAL_0000149400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:CC</t>
@@ -257,7 +263,7 @@
     <t xml:space="preserve">intracellular anatomical structure</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000208900,SSTP_0000823300,SSTP_0000119100,SSTP_0000151300,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0000680600,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000777200,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000214400,SSTP_0000127700,SSTP_0000765200,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000930100,SSTP_0000122700,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000208900,SSTP_0000823300,SSTP_0000119100,SSTP_0000151300,SSTP_0000428100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0000680600,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000556300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000777200,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000214400,SSTP_0000127700,SSTP_0000765200,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000930100,SSTP_0000122700,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600,SSTP_0000393800,SSTP_0000765700, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_2000475100,SRAE_1000309200,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000293900,SRAE_2000300300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000382800,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000085500,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000510800,SRAE_1000173900,SRAE_2000222400,SRAE_1000278400,SRAE_1000152200,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_1000136300,SRAE_2000377600,SRAE_X000071300,SRAE_2000417300,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000146300,SRAE_2000099100,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_0000011100,SRAE_2000004200,SRAE_1000211700,SRAE_2000398200,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_2000179300,SRAE_2000258500,SRAE_1000270300,SRAE_2000174400,SRAE_2000364800,SRAE_2000190300,SRAE_1000354400,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_1000255700,SRAE_0000019300,SRAE_1000109100,SRAE_2000104800,SRAE_1000120800,SRAE_0000041600,SRAE_0000040600,SRAE_2000280100,SRAE_2000195200,SRAE_2000050800,SRAE_0000015400,SRAE_2000275900,SRAE_2000351900,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500,SRAE_2000236300, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000995200,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000219500,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000921600,SPAL_0000172800,SPAL_0000453200,SPAL_0001618700,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0000061900,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001386200,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000655400,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000921500,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0000510000,SPAL_0000915700,SPAL_0000215000,SPAL_0000420300,SPAL_0001698600,SPAL_0000309100,SPAL_0000156000,SPAL_0001032400,SPAL_0001658900,SPAL_0001554100,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0001590150,SPAL_0001250800,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001161000,SPAL_0001658400,SPAL_0000750800,SPAL_0000234200,SPAL_0000864500,SPAL_0000240100,SPAL_0001020200,SPAL_0000772100,SPAL_0001017900,SPAL_0000969250,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0001381800,SPAL_0000502500,SPAL_0001647700,SPAL_0000235200,SPAL_0001555900,SPAL_0001398600,SPAL_0000842300,SPAL_0001268000,SPAL_0000158900,SPAL_0001054900,SPAL_0000284900,SPAL_0000781500,SPAL_0001671100,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001085700,SPAL_0001371300,SPAL_0000149400,SPAL_0001535700,SPAL_0000819800, SVE_0056400,SVE_0275900,SVE_0248300,SVE_0413700,SVE_0506800,SVE_0565300,SVE_0240600,SVE_1719700,SVE_1691500,SVE_1693100,SVE_1634300,SVE_1605700,SVE_1585600,SVE_0386200,SVE_0635700,SVE_1585400,SVE_0567200,SVE_1884300,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0445300,SVE_0365700,SVE_0793100,SVE_1740400,SVE_0383800,SVE_0226500,SVE_1939800,SVE_0408700,SVE_0163500,SVE_0075200,SVE_1596200,SVE_0374700,SVE_1024300,SVE_1612800,SVE_1749500,SVE_1799500,SVE_1015700,SVE_1940600,SVE_0278900,SVE_1821400,SVE_0694100,SVE_1650700,SVE_0476800,SVE_0444600,SVE_0753900,SVE_0728400,SVE_0504100,SVE_1734500,SVE_0995400,SVE_0016000,SVE_1059100,SVE_0967800,SVE_0150900,SVE_1764400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005737</t>
@@ -266,7 +272,7 @@
     <t xml:space="preserve">cytoplasm</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000208900,SSTP_0000151300,SSTP_0000730000,SSTP_0000920600,SSTP_0001106300,SSTP_0000657600,SSTP_0000694000,SSTP_0000314800,SSTP_0000680600,SSTP_0001173900,SSTP_0000746900,SSTP_0000753500,SSTP_0000611200,SSTP_0000255500,SSTP_0000299600,SSTP_0000086600,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000416100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000214400,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000122700,SSTP_0000758700,SSTP_0000724400</t>
+    <t xml:space="preserve">SSTP_0000208900,SSTP_0000151300,SSTP_0000730000,SSTP_0000920600,SSTP_0001106300,SSTP_0000657600,SSTP_0000694000,SSTP_0000314800,SSTP_0000680600,SSTP_0001173900,SSTP_0000746900,SSTP_0000753500,SSTP_0000611200,SSTP_0000255500,SSTP_0000299600,SSTP_0000086600,SSTP_0000369400,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000416100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000214400,SSTP_0000651000,SSTP_0000229000,SSTP_0000911300,SSTP_0000122700,SSTP_0000758700,SSTP_0000724400, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_1000309200,SRAE_1000118300,SRAE_2000148500,SRAE_2000448500,SRAE_2000267500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000293900,SRAE_2000300300,SRAE_2000171500,SRAE_0000033600,SRAE_2000212500,SRAE_2000382800,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000085500,SRAE_2000510800,SRAE_1000152200,SRAE_1000136300,SRAE_X000071300,SRAE_2000417300,SRAE_2000443400,SRAE_2000099100,SRAE_0000011100,SRAE_2000004200,SRAE_2000398200,SRAE_2000133800,SRAE_2000179300,SRAE_2000258500,SRAE_2000364800,SRAE_2000190300,SRAE_1000354400,SRAE_1000261100,SRAE_2000104800,SRAE_2000195200,SRAE_2000050800,SRAE_0000015400,SRAE_2000351900,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500, SPAL_0001738500,SPAL_0001173100,SPAL_0000634000,SPAL_0000913000,SPAL_0000121400,SPAL_0000760700,SPAL_0000296700,SPAL_0001592900,SPAL_0000921600,SPAL_0001618700,SPAL_0000061900,SPAL_0001244000,SPAL_0001386200,SPAL_0001524200,SPAL_0000921500,SPAL_0001629900,SPAL_0000510000,SPAL_0000215000,SPAL_0000420300,SPAL_0000309100,SPAL_0000317800,SPAL_0001288700,SPAL_0001250800,SPAL_0001161000,SPAL_0000750800,SPAL_0000234200,SPAL_0000240100,SPAL_0001020200,SPAL_0000772100,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0001398600,SPAL_0001268000,SPAL_0000158900,SPAL_0001054900,SPAL_0000284900,SPAL_0000781500,SPAL_0001671100,SPAL_0001233800,SPAL_0001412300,SPAL_0001590600,SPAL_0001125300,SPAL_0001371300,SPAL_0000819800, SVE_0275900,SVE_0248300,SVE_0413700,SVE_1691500,SVE_1693100,SVE_0567200,SVE_1884300,SVE_0445300,SVE_0793100,SVE_1740400,SVE_1939800,SVE_0163500,SVE_1596200,SVE_0374700,SVE_0694100,SVE_1650700,SVE_0476800,SVE_0444600,SVE_0753900,SVE_0728400,SVE_1734500,SVE_0016000,SVE_1059100,SVE_0150900,SVE_1764400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005840</t>
@@ -275,7 +281,7 @@
     <t xml:space="preserve">ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000475100,SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_2000249700,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000249800,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0015934</t>
@@ -284,7 +290,7 @@
     <t xml:space="preserve">large ribosomal subunit</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0001085200,SSTP_0000730000,SSTP_0001173900,SSTP_0000890100,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000340000,SSTP_0001049900,SSTP_0000299600</t>
+    <t xml:space="preserve">SSTP_0001085200,SSTP_0000730000,SSTP_0001173900,SSTP_0000890100,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000340000,SSTP_0001049900,SSTP_0000299600, SRAE_1000046600,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_2000222500,SRAE_1000347400,SRAE_1000211700,SRAE_1000107700, SPAL_0001173100,SPAL_0000541600,SPAL_0000860400,SPAL_0001592900,SPAL_0000453200,SPAL_0000778400,SPAL_0001244000,SPAL_0000636000,SPAL_0000518700,SPAL_0001524200</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0015935</t>
@@ -293,7 +299,7 @@
     <t xml:space="preserve">small ribosomal subunit</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0000297800,SSTP_0000725500,SSTP_0000909200,SSTP_0000331900,SSTP_0000058600</t>
+    <t xml:space="preserve">SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0000297800,SSTP_0000725500,SSTP_0000909200,SSTP_0000331900,SSTP_0000058600, SRAE_1000155800,SRAE_2000267500,SRAE_2000311200,SRAE_2000501200,SRAE_2000100300,SRAE_1000024400,SRAE_1000245800,SRAE_2000074800,SRAE_2000323200, SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000187700,SPAL_0000154400,SPAL_0000677500,SPAL_0000773400,SPAL_0001741400,SPAL_0001703600</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0022626</t>
@@ -302,7 +308,7 @@
     <t xml:space="preserve">cytosolic ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000730000,SSTP_0000657600,SSTP_0000694000,SSTP_0001173900,SSTP_0000611200,SSTP_0000299600</t>
+    <t xml:space="preserve">SSTP_0000730000,SSTP_0000657600,SSTP_0000694000,SSTP_0001173900,SSTP_0000611200,SSTP_0000299600, SRAE_2000267500,SRAE_2000311200,SRAE_0000033600,SRAE_1000347400, SPAL_0001173100,SPAL_0000121400,SPAL_0000296700,SPAL_0001592900,SPAL_0001244000,SPAL_0001524200</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0032991</t>
@@ -311,7 +317,7 @@
     <t xml:space="preserve">protein-containing complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000950200,SSTP_0000556300,SSTP_0000264100,SSTP_0000331900,SSTP_0000340000,SSTP_0000145100,SSTP_0001045500,SSTP_0000011100,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000040000,SSTP_0000112200,SSTP_0000076400,SSTP_0000442700,SSTP_0000777200,SSTP_0000725900,SSTP_0000911300,SSTP_0001244100,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600</t>
+    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000950200,SSTP_0000556300,SSTP_0000264100,SSTP_0000331900,SSTP_0000340000,SSTP_0000145100,SSTP_0001045500,SSTP_0000011100,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600,SSTP_0000305100,SSTP_0000369400,SSTP_0000570000,SSTP_0000040000,SSTP_0000112200,SSTP_0000076400,SSTP_0000442700,SSTP_0000777200,SSTP_0000725900,SSTP_0000911300,SSTP_0001244100,SSTP_0000304700,SSTP_0000724400,SSTP_0001181600, SRAE_M000000005,SRAE_2000256800,SRAE_1000309200,SRAE_1000155800,SRAE_2000448500,SRAE_2000126900,SRAE_2000267500,SRAE_2000334600,SRAE_2000020900,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000501200,SRAE_2000100300,SRAE_2000328000,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000439500,SRAE_2000222500,SRAE_1000347400,SRAE_1000062000,SRAE_X000171800,SRAE_1000278400,SRAE_2000027000,SRAE_1000136300,SRAE_2000377600,SRAE_X000071300,SRAE_2000443400,SRAE_2000099100,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_1000270300,SRAE_1000354400,SRAE_2000323200,SRAE_1000261100,SRAE_1000255700,SRAE_0000019300,SRAE_1000109100,SRAE_X000121000,SRAE_0000041600,SRAE_1000060700,SRAE_2000330300,SRAE_1000298500,SRAE_2000236300, SPAL_0001173100,SPAL_0000995200,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000219500,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0000655400,SPAL_0001741400,SPAL_0001504100,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200,SPAL_0000215000,SPAL_0000249700,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0000750800,SPAL_0000864500,SPAL_0000772100,SPAL_0001017900,SPAL_0001381800,SPAL_0000502500,SPAL_0001647700,SPAL_0001555900,SPAL_0000842300,SPAL_0001412300,SPAL_0001590600,SPAL_0001535700, SVE_0056400,SVE_0506800,SVE_0565300,SVE_0240600,SVE_1719700,SVE_1605700,SVE_0386200,SVE_0478900,SVE_1585400,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0365700,SVE_0793100,SVE_1740400,SVE_1939800,SVE_0163500,SVE_0075200,SVE_1024300,SVE_1749500,SVE_1015700,SVE_1940600,SVE_0694100,SVE_1650700,SVE_0994300,SVE_0444600,SVE_0504100,SVE_1734500,SVE_1059100</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043226</t>
@@ -320,7 +326,7 @@
     <t xml:space="preserve">organelle</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000765200,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0000746900,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000753500,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000255500,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000086600,SSTP_0000570000,SSTP_0000460300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000416100,SSTP_0000153100,SSTP_0000076400,SSTP_0000442700,SSTP_0000172800,SSTP_0000960700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000765200,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000304700,SSTP_0000724400,SSTP_0000393800,SSTP_0000765700, SRAE_M000000005,SRAE_1000145800,SRAE_1000178500,SRAE_2000256800,SRAE_2000475100,SRAE_1000309200,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000364600,SRAE_2000334600,SRAE_2000020900,SRAE_2000435600,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000293900,SRAE_2000300300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_2000328000,SRAE_0000039300,SRAE_2000038200,SRAE_2000171500,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000212500,SRAE_2000382800,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_2000249200,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000085500,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000510800,SRAE_1000173900,SRAE_2000222400,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_X000071300,SRAE_2000443400,SRAE_2000291100,SRAE_1000300500,SRAE_2000146300,SRAE_2000099100,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_0000011100,SRAE_2000004200,SRAE_1000211700,SRAE_2000398200,SRAE_1000145500,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_2000258500,SRAE_1000270300,SRAE_2000174400,SRAE_2000364800,SRAE_2000190300,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_0000019300,SRAE_1000109100,SRAE_2000104800,SRAE_1000120800,SRAE_0000040600,SRAE_2000280100,SRAE_2000195200,SRAE_2000050800,SRAE_2000275900,SRAE_1000060700,SRAE_2000236300, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000921600,SPAL_0000172800,SPAL_0000453200,SPAL_0001618700,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001386200,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0000921500,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0000510000,SPAL_0000915700,SPAL_0000420300,SPAL_0001698600,SPAL_0000309100,SPAL_0000156000,SPAL_0001032400,SPAL_0001658900,SPAL_0001554100,SPAL_0000317800,SPAL_0000347900,SPAL_0001288700,SPAL_0001590150,SPAL_0001250800,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001658400,SPAL_0000240100,SPAL_0000772100,SPAL_0001017900,SPAL_0000969250,SPAL_0000432500,SPAL_0000999100,SPAL_0001309900,SPAL_0000502500,SPAL_0001647700,SPAL_0000235200,SPAL_0001555900,SPAL_0000842300,SPAL_0000781500,SPAL_0001671100,SPAL_0001085700,SPAL_0000149400,SPAL_0001535700,SPAL_0000819800, SVE_0056400,SVE_0275900,SVE_0413700,SVE_0506800,SVE_0240600,SVE_1719700,SVE_1693100,SVE_1634300,SVE_1605700,SVE_1585600,SVE_0386200,SVE_0635700,SVE_1585400,SVE_1884300,SVE_0480700,SVE_1819400,SVE_0208500,SVE_0445300,SVE_0365700,SVE_0793100,SVE_1740400,SVE_0383800,SVE_0226500,SVE_0408700,SVE_0163500,SVE_0075200,SVE_1596200,SVE_0374700,SVE_1024300,SVE_1612800,SVE_1749500,SVE_1799500,SVE_1015700,SVE_1940600,SVE_0278900,SVE_1821400,SVE_1650700,SVE_0476800,SVE_0728400,SVE_0504100,SVE_0995400,SVE_0016000,SVE_0967800,SVE_0150900,SVE_1764400</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043228</t>
@@ -329,7 +335,7 @@
     <t xml:space="preserve">non-membrane-bounded organelle</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000442700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000208900,SSTP_0000119100,SSTP_0000151300,SSTP_0001085200,SSTP_0000339800,SSTP_0000730000,SSTP_0000920600,SSTP_0000518600,SSTP_0001106300,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000800500,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000264100,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000145100,SSTP_0001045500,SSTP_0000344100,SSTP_0000011100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000040000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000112200,SSTP_0000442700,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_1000145800,SRAE_2000475100,SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_0000013400,SRAE_1000211500,SRAE_2000020900,SRAE_2000214800,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000414100,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_2000516800,SRAE_1000347400,SRAE_2000170700,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_2000027000,SRAE_2000249700,SRAE_1000227100,SRAE_X000071300,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000133800,SRAE_2000249800,SRAE_1000270300,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_0000019300,SRAE_1000109100,SRAE_1000120800,SRAE_0000040600,SRAE_2000195200,SRAE_1000060700, SPAL_0001738500,SPAL_0001024600,SPAL_0001173100,SPAL_0001068000,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0000760700,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001005900,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0001504100,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001629900,SPAL_0001698600,SPAL_0000156000,SPAL_0001658900,SPAL_0001554100,SPAL_0000347900,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0001658400,SPAL_0001017900,SPAL_0000969250,SPAL_0001309900,SPAL_0000502500,SPAL_0001555900,SPAL_0000842300, SVE_0056400,SVE_0506800,SVE_0240600,SVE_1634300,SVE_0635700,SVE_0208500,SVE_0383800,SVE_0226500,SVE_0075200,SVE_1015700,SVE_1940600,SVE_1821400,SVE_0016000</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0043229</t>
@@ -350,7 +356,7 @@
     <t xml:space="preserve">ribosomal subunit</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000331900,SSTP_0000340000,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600</t>
+    <t xml:space="preserve">SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000331900,SSTP_0000340000,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600, SRAE_1000155800,SRAE_2000267500,SRAE_1000046600,SRAE_2000311200,SRAE_2000501200,SRAE_2000100300,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_1000347400,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000323200, SPAL_0001173100,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0001741400,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0045259</t>
@@ -359,7 +365,7 @@
     <t xml:space="preserve">proton-transporting ATP synthase complex</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000076400,SSTP_0001181600</t>
+    <t xml:space="preserve">SSTP_0000823300,SSTP_0000428100,SSTP_0000556300,SSTP_0000076400,SSTP_0001181600, SRAE_2000256800,SRAE_2000334600,SRAE_1000278400,SRAE_2000443400,SRAE_1000255700, SPAL_0000995200,SPAL_0000219500,SPAL_0000655400,SPAL_0000317800,SPAL_0000864500</t>
   </si>
   <si>
     <t xml:space="preserve">GO:1990904</t>
@@ -368,13 +374,16 @@
     <t xml:space="preserve">ribonucleoprotein complex</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTP_0001085200,SSTP_0000730000,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000158900,SSTP_0001173900,SSTP_0000297800,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000611200,SSTP_0000980000,SSTP_0000251100,SSTP_0000331900,SSTP_0000340000,SSTP_0001049900,SSTP_0000058600,SSTP_0000299600, SRAE_1000155800,SRAE_2000448500,SRAE_2000267500,SRAE_2000020900,SRAE_1000046600,SRAE_2000311200,SRAE_1000262800,SRAE_2000501200,SRAE_2000100300,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_1000347400,SRAE_X000171800,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000323200, SPAL_0001173100,SPAL_0000541600,SPAL_0000121400,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0000187700,SPAL_0001592900,SPAL_0000154400,SPAL_0000677500,SPAL_0000453200,SPAL_0000773400,SPAL_0000778400,SPAL_0001244000,SPAL_0001741400,SPAL_0000636000,SPAL_0000518700,SPAL_0001703600,SPAL_0001524200</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0003735</t>
   </si>
   <si>
     <t xml:space="preserve">structural constituent of ribosome</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000119100,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000930100,SSTP_0001171150,SSTP_0000393800,SSTP_0000765700, SRAE_2000183100,SRAE_1000155800,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_1000227100,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000120800,SRAE_0000040600, SPAL_0001024600,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005198</t>
@@ -383,7 +392,7 @@
     <t xml:space="preserve">structural molecule activity</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000510400,SSTP_0000119100,SSTP_0000151300,SSTP_0000258700,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000606100,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0001114600,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000950200,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0000530400,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000570000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000102800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000725900,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000926500,SSTP_0000765700</t>
+    <t xml:space="preserve">SSTP_0000510400,SSTP_0000119100,SSTP_0000151300,SSTP_0000258700,SSTP_0001085200,SSTP_0000339800,SSTP_0000518600,SSTP_0000930900,SSTP_0000657600,SSTP_0000606100,SSTP_0000694000,SSTP_0000801100,SSTP_0000208100,SSTP_0000314800,SSTP_0000552200,SSTP_0001179400,SSTP_0000213300,SSTP_0000158900,SSTP_0001003100,SSTP_0001173900,SSTP_0000297800,SSTP_0000936200,SSTP_0001184700,SSTP_0000028200,SSTP_0000725500,SSTP_0000890100,SSTP_0001114600,SSTP_0000909200,SSTP_0000760300,SSTP_0000611200,SSTP_0000980000,SSTP_0000317500,SSTP_0000251100,SSTP_0000838500,SSTP_0000950200,SSTP_0001004100,SSTP_0000587500,SSTP_0000051200,SSTP_0000895300,SSTP_0000122900,SSTP_0000331900,SSTP_0000340000,SSTP_0000127500,SSTP_0000344100,SSTP_0000530400,SSTP_0001066000,SSTP_0001049900,SSTP_0000756200,SSTP_0000714900,SSTP_0000159800,SSTP_0000774300,SSTP_0000179000,SSTP_0001180700,SSTP_0000042700,SSTP_0001062700,SSTP_0000798000,SSTP_0000058600,SSTP_0000980700,SSTP_0001191200,SSTP_0000242900,SSTP_0000299600,SSTP_0000798300,SSTP_0000960300,SSTP_0000570000,SSTP_0000161200,SSTP_0000143400,SSTP_0000714400,SSTP_0000102800,SSTP_0000395300,SSTP_0000979800,SSTP_0000154600,SSTP_0000596100,SSTP_0000127700,SSTP_0000725900,SSTP_0000930100,SSTP_0000758700,SSTP_0001171150,SSTP_0000393800,SSTP_0000926500,SSTP_0000765700, SRAE_2000183100,SRAE_1000118300,SRAE_2000148500,SRAE_1000155800,SRAE_2000126900,SRAE_2000267500,SRAE_1000211500,SRAE_2000067300,SRAE_1000046600,SRAE_2000311200,SRAE_2000416300,SRAE_2000501200,SRAE_2000100300,SRAE_1000338900,SRAE_0000039300,SRAE_2000038200,SRAE_0000033600,SRAE_1000252000,SRAE_2000086900,SRAE_1000024400,SRAE_2000439500,SRAE_2000222500,SRAE_2000110600,SRAE_1000347400,SRAE_2000413400,SRAE_1000259000,SRAE_1000340400,SRAE_1000062000,SRAE_2000285200,SRAE_1000263300,SRAE_2000054400,SRAE_2000302800,SRAE_1000331800,SRAE_2000222400,SRAE_1000227100,SRAE_X000071300,SRAE_2000291100,SRAE_1000300500,SRAE_1000321900,SRAE_0000004900,SRAE_2000037200,SRAE_1000245800,SRAE_2000074800,SRAE_1000211700,SRAE_1000107700,SRAE_2000174400,SRAE_2000323200,SRAE_2000234300,SRAE_1000261100,SRAE_1000120800,SRAE_0000040600,SRAE_2000195200, SPAL_0001024600,SPAL_0000634000,SPAL_0000913000,SPAL_0000541600,SPAL_0000518900,SPAL_0000121400,SPAL_0001078200,SPAL_0000296700,SPAL_0000155200,SPAL_0000860400,SPAL_0001649600,SPAL_0000187700,SPAL_0001737700,SPAL_0001592900,SPAL_0001005300,SPAL_0000154400,SPAL_0000677500,SPAL_0000970300,SPAL_0000172800,SPAL_0000453200,SPAL_0001443200,SPAL_0000773400,SPAL_0000680800,SPAL_0001679200,SPAL_0000778400,SPAL_0001244000,SPAL_0000270900,SPAL_0000887800,SPAL_0001480900,SPAL_0000610100,SPAL_0000630800,SPAL_0000304600,SPAL_0001541900,SPAL_0000969400,SPAL_0001310000,SPAL_0001020100,SPAL_0000639600,SPAL_0001415400,SPAL_0001378000,SPAL_0000895100,SPAL_0001372100,SPAL_0001270000,SPAL_0000678400,SPAL_0001648400,SPAL_0000563100,SPAL_0001741400,SPAL_0000883400,SPAL_0000636000,SPAL_0001350900,SPAL_0000518700,SPAL_0001703600,SPAL_0001682300,SPAL_0000331100,SPAL_0000453100,SPAL_0001524200,SPAL_0000679900,SPAL_0000592500,SPAL_0001415000,SPAL_0001727700,SPAL_0000510400,SPAL_0001481100,SPAL_0001407200,SPAL_0001272100,SPAL_0001596100,SPAL_0000743800,SPAL_0001081000,SPAL_0000317400,SPAL_0001698600,SPAL_0000156000,SPAL_0001554100,SPAL_0001288700,SPAL_0001590150,SPAL_0000729200,SPAL_0000292900,SPAL_0000177400,SPAL_0000969250,SPAL_0001309900,SPAL_0001385500,SPAL_0001535700</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0006508</t>
@@ -392,7 +401,7 @@
     <t xml:space="preserve">proteolysis</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000385400,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100</t>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000385400,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000486000,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_X000107250,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000809000,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0005576</t>
@@ -401,7 +410,16 @@
     <t xml:space="preserve">extracellular region</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000274400,SSTP_0000485900,SSTP_0000705700,SSTP_0001133300,SSTP_0001222300,SSTP_0001133200,SSTP_0000700900,SSTP_0000701300,SSTP_0000700800,SSTP_0000701400,SSTP_0001108300,SSTP_0000967000</t>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0000485900,SSTP_0000705700,SSTP_0001133300,SSTP_0001222300,SSTP_0001133200,SSTP_0000700900,SSTP_0000701300,SSTP_0000700800,SSTP_0000701400,SSTP_0001108300,SSTP_0000967000, SRAE_2000477100,SRAE_2000477300,SRAE_2000524100,SRAE_2000506900,SRAE_2000460800,SRAE_0000025600,SRAE_2000046500,SRAE_X000226600,SRAE_2000486000,SRAE_X000038100,SRAE_2000451600, SPAL_0000191300,SPAL_0000211600,SPAL_0000511816,SPAL_0000525800,SPAL_0000557900,SPAL_0000676966,SPAL_0000691800,SPAL_0001139700,SPAL_0001230400,SPAL_0001248050,SPAL_0001311900,SPAL_0001559033,SPAL_0001559910,SPAL_0001764800, SVE_0645600,SVE_0268200,SVE_0268700,SVE_1615300,SVE_1866900,SVE_1867100,SVE_0736300,SVE_1331500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0003824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalytic activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_0000055000,SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_0000072500,SRAE_0000048600,SRAE_2000150700,SRAE_2000424200,SRAE_2000406100,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000421600,SRAE_2000440600,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000478000,SRAE_X000237400,SRAE_2000289600,SRAE_X000107100,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000132400,SRAE_2000464800,SRAE_X000235500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_0000046300,SRAE_0000063600,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000149000,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000481600,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000585300,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000818000,SPAL_0000827000,SPAL_0000848600,SPAL_0000881300,SPAL_0000922400,SPAL_0000940400,SPAL_0000942900,SPAL_0001071600,SPAL_0001140600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001322500,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001477600,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001595600,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400,SPAL_0001765000, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1309300,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0334400,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0667600,SVE_0706200,SVE_0771000,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1709300,SVE_1794600,SVE_1858400,SVE_0335100,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_0832600,SVE_1575500,SVE_0129300,SVE_0037500,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1566500,SVE_1794500,SVE_1633000,SVE_1162100,SVE_0788300</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0004175</t>
@@ -410,7 +428,7 @@
     <t xml:space="preserve">endopeptidase activity</t>
   </si>
   <si>
-    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100</t>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
   </si>
   <si>
     <t xml:space="preserve">GO:0004222</t>
@@ -419,16 +437,76 @@
     <t xml:space="preserve">metalloendopeptidase activity</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0008233</t>
   </si>
   <si>
     <t xml:space="preserve">peptidase activity</t>
   </si>
   <si>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
     <t xml:space="preserve">GO:0008237</t>
   </si>
   <si>
     <t xml:space="preserve">metallopeptidase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSTP_0000274400,SSTP_0001149800,SSTP_0000984600,SSTP_0001126300,SSTP_0000967000,SSTP_0001126500,SSTP_0000364910,SSTP_0000493100, SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1162100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0008270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zinc ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_2000290720,SRAE_2000456700,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000289600,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000289800,SRAE_0000081000, SPAL_0000011100,SPAL_0000398600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001455900,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0706200,SVE_0902200,SVE_0917200,SVE_1185400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0016787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrolase activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_0000055000,SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000406100,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_X000107100,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000149000,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000848600,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001477600,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001595600,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400,SPAL_0001765000, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1309300,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0667600,SVE_0706200,SVE_0771000,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1709300,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_0832600,SVE_1575500,SVE_0129300,SVE_0037500,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1794500,SVE_1162100, SVE_0813500,SVE_1844100,SVE_0056400,SVE_0367500,SVE_1034400,SVE_0436000,SVE_0730700,SVE_0171500,SVE_0506800,SVE_0554400,SVE_0540900,SVE_0432100,SVE_1719700,SVE_1691500,SVE_0131900,SVE_1687200,SVE_1634300,SVE_0555900,SVE_0386200,SVE_0345200,SVE_0880100,SVE_0971300,SVE_0880200,SVE_0643400,SVE_0287300,SVE_0963300,SVE_0567200,SVE_1880000,SVE_0187400,SVE_0519500,SVE_1012400,SVE_1890600,SVE_0397400,SVE_1819400,SVE_1799200,SVE_0057100,SVE_0208500,SVE_0445300,SVE_0232200,SVE_0383800,SVE_0408700,SVE_1769900,SVE_0697100,SVE_0075200,SVE_1596200,SVE_0911800,SVE_1767400,SVE_0153800,SVE_0078200,SVE_0155900,SVE_0446100,SVE_0753900,SVE_0728400,SVE_1712600,SVE_1734500,SVE_0016000,SVE_1600100,SVE_0345000,SVE_1077900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0043169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cation binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_2000325600, SPAL_0000011100,SPAL_0000398600,SPAL_0000398900,SPAL_0000481600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000792600,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001322500,SPAL_0001434710,SPAL_0001455900,SPAL_0001475300,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1703900,SVE_0056600,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0337600,SVE_0706200,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100,SVE_1162100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0046872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0046914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transition metal ion binding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_2000290720,SRAE_2000456700,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000289600,SRAE_2000469300,SRAE_0000047400,SRAE_X000147200,SRAE_2000497500,SRAE_2000289800,SRAE_0000081000, SPAL_0000011100,SPAL_0000398600,SPAL_0000525800,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000675200,SPAL_0000682400,SPAL_0000691800,SPAL_0000692600,SPAL_0000722000,SPAL_0000766700,SPAL_0000791900,SPAL_0000817600,SPAL_0000881300,SPAL_0001071600,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001311900,SPAL_0001455900,SPAL_0001559910,SPAL_0001707400,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_1244400,SVE_0645600,SVE_0065700,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0706200,SVE_0902200,SVE_0917200,SVE_1185400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1575500,SVE_1397800,SVE_1185500,SVE_1331500,SVE_1577500,SVE_0260100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO:0140096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catalytic activity, acting on a protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRAE_0000064100,SRAE_2000290720,SRAE_2000456700,SRAE_2000460200,SRAE_2000495500,SRAE_2000525400,SRAE_2000524100,SRAE_2000524500,SRAE_0000073100,SRAE_2000150700,SRAE_2000424200,SRAE_1000000400,SRAE_2000290000,SRAE_2000290500,SRAE_2000495410,SRAE_2000524000,SRAE_2000290800,SRAE_X000199500,SRAE_2000289600,SRAE_2000497400,SRAE_2000469300,SRAE_0000079500,SRAE_X000240300,SRAE_0000047400,SRAE_X000191400,SRAE_X000147200,SRAE_2000497500,SRAE_2000497200,SRAE_2000289800,SRAE_0000081000,SRAE_X000169500,SRAE_2000325600,SRAE_X000168800,SRAE_X000168710, SPAL_0000002000,SPAL_0000005100,SPAL_0000011100,SPAL_0000114300,SPAL_0000114400,SPAL_0000129700,SPAL_0000180000,SPAL_0000209600,SPAL_0000329300,SPAL_0000398600,SPAL_0000398900,SPAL_0000525800,SPAL_0000583200,SPAL_0000583600,SPAL_0000583700,SPAL_0000615300,SPAL_0000682400,SPAL_0000688300,SPAL_0000691800,SPAL_0000722000,SPAL_0000791900,SPAL_0000792600,SPAL_0000793300,SPAL_0000817600,SPAL_0000827000,SPAL_0000881300,SPAL_0000922400,SPAL_0000942900,SPAL_0001071600,SPAL_0001142133,SPAL_0001168510,SPAL_0001227000,SPAL_0001229900,SPAL_0001230000,SPAL_0001230400,SPAL_0001248000,SPAL_0001252800,SPAL_0001284100,SPAL_0001292000,SPAL_0001311900,SPAL_0001352900,SPAL_0001369200,SPAL_0001434710,SPAL_0001455900,SPAL_0001460500,SPAL_0001475300,SPAL_0001517200,SPAL_0001542900,SPAL_0001559910,SPAL_0001610300,SPAL_0001707400,SPAL_0001713700,SPAL_0001731400, SVE_1632700,SVE_0251500,SVE_0367900,SVE_0728000,SVE_1000972750,SVE_1703900,SVE_0056600,SVE_0172100,SVE_0645600,SVE_0065700,SVE_0228800,SVE_0234800,SVE_0250200,SVE_0268200,SVE_0268700,SVE_0271800,SVE_0277000,SVE_0337400,SVE_0337600,SVE_0633500,SVE_0706200,SVE_0857800,SVE_0902200,SVE_0917100,SVE_0917200,SVE_1152800,SVE_1185400,SVE_1220700,SVE_1794600,SVE_1858400,SVE_0337500,SVE_0675400,SVE_1185300,SVE_1319100,SVE_1575500,SVE_0129300,SVE_1397800,SVE_1954200,SVE_0778500,SVE_1185500,SVE_1331500,SVE_1577500,SVE_1794500,SVE_1633000,SVE_1162100</t>
   </si>
   <si>
     <t xml:space="preserve">MTCE.3,MTCE.35,MTCE.25,MTCE.21,MTCE.34,MTCE.16,MTCE.23,MTCE.26,MTCE.31,MTCE.12, SSTP_0000911500.1,SSTP_0000168300.1,SSTP_0001253800.2,SSTP_0000911300.1,SSTP_0001168700.1,SSTP_0000823300.1,SSTP_0001244100.1, SRAE_X000110700,SRAE_1000136500,SRAE_1000020900,SRAE_2000334600,SRAE_2000037100,SRAE_X000121000,SRAE_X000082900,SRAE_2000333700,SRAE_2000256800,SRAE_2000254300, SPAL_0000783800.1,SPAL_0000992600.1,SPAL_0001662900.1,SPAL_0000200300.1,SPAL_0000219500.1,SPAL_0000218500.1,SPAL_0000995200.1,SPAL_0000750800.1,SPAL_0000751000.1,SPAL_0000969350.1,SPAL_0001445300.1,SPAL_0000200100.1, SVE_0040500.1,SVE_1841400.1,SVE_0470700.1,SVE_0145600.1,SVE_0965900.1,SVE_1736700.1,SVE_0473400.1,SVE_0143800.1,SVE_0021500.1,SVE_0040700.1,SVE_1735800.1,SVE_1582400.1, K10B3.7,K10B3.8,Y82E9BR.3,E04A4.7,H28O16.1a,F32D1.2,F26E4.9,C34E10.6,T21B10.2a,T05D4.1,F20B6.2,Y69A2AR.18,T27E9.2,C03G5.1,Y49A3A.2,F02E8.1,T05H4.12,F58F12.1,F26E4.6,F46F11.5,F54D8.2,R53.4,F01F1.12,C53B7.4,C14B9.10</t>
@@ -918,7 +996,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -926,13 +1004,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -940,13 +1018,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -954,13 +1032,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -968,13 +1046,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +1060,13 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -996,13 +1074,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1010,13 +1088,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
@@ -1024,13 +1102,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -1038,13 +1116,13 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
@@ -1052,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1144,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1080,13 +1158,13 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -1094,13 +1172,13 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17">
@@ -1108,13 +1186,13 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1122,13 +1200,13 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -1136,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20">
@@ -1150,13 +1228,13 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -1164,13 +1242,13 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22">
@@ -1178,13 +1256,13 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
@@ -1192,209 +1270,209 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
@@ -1402,13 +1480,13 @@
         <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -1416,13 +1494,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1458,52 +1536,52 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
         <v>131</v>
@@ -1514,13 +1592,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="7">
@@ -1528,13 +1606,139 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>137</v>
       </c>
-      <c r="D7" t="s">
-        <v>131</v>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1570,55 +1774,55 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6">
@@ -1626,13 +1830,13 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -1640,13 +1844,13 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
